--- a/data/trans_orig/P9_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P9_2_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD33246B-9290-45A9-A249-811C7476A560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BCE6A10-3A45-43E6-9666-30DB22C6D4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E6F2AC1-F344-4216-AB03-308E33A50C02}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABBDD425-9401-4682-A415-37104A39AF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,223 +77,229 @@
     <t>15,51%</t>
   </si>
   <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>87,75%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -524,64 +530,64 @@
     <t>20,62%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>34,95%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>65,05%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>11,49%</t>
@@ -590,31 +596,31 @@
     <t>10,0%</t>
   </si>
   <si>
-    <t>13,06%</t>
+    <t>13,1%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>86,94%</t>
+    <t>86,9%</t>
   </si>
   <si>
     <t>90,0%</t>
@@ -623,322 +629,322 @@
     <t>91,16%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>11,61%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>88,39%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>16,4%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>80,82%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>83,77%</t>
   </si>
   <si>
-    <t>82,91%</t>
+    <t>82,82%</t>
   </si>
   <si>
     <t>84,76%</t>
@@ -1353,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10EED4D-E7C4-487F-9AD0-77400BC6E265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BB905D-D272-41BD-A53C-6C1A83559ED9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1975,10 +1981,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1999,13 @@
         <v>3009106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2823</v>
@@ -2008,28 +2014,28 @@
         <v>2885531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5766</v>
       </c>
       <c r="N14" s="7">
-        <v>5894634</v>
+        <v>5894635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +2077,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2085,7 +2091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07B98D4-88F6-4100-A334-EAC82FFB6B35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05346402-9DBD-4CA1-AD2C-0A68A60243B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2228,13 +2234,13 @@
         <v>226715</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>444</v>
@@ -2243,13 +2249,13 @@
         <v>474204</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>649</v>
@@ -2258,13 +2264,13 @@
         <v>700920</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2285,13 @@
         <v>747928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>803</v>
@@ -2294,13 +2300,13 @@
         <v>863592</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1506</v>
@@ -2309,13 +2315,13 @@
         <v>1611520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2389,13 @@
         <v>121096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>180</v>
@@ -2398,13 +2404,13 @@
         <v>198083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>295</v>
@@ -2413,13 +2419,13 @@
         <v>319179</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2440,13 @@
         <v>1841941</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1453</v>
@@ -2449,13 +2455,13 @@
         <v>1556743</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3193</v>
@@ -2464,13 +2470,13 @@
         <v>3398683</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2544,13 @@
         <v>27983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -2553,13 +2559,13 @@
         <v>34765</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -2568,13 +2574,13 @@
         <v>62748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2595,13 @@
         <v>453198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>379</v>
@@ -2604,13 +2610,13 @@
         <v>422897</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>795</v>
@@ -2619,13 +2625,13 @@
         <v>876096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2699,13 @@
         <v>375794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>656</v>
@@ -2708,13 +2714,13 @@
         <v>707052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>998</v>
@@ -2723,13 +2729,13 @@
         <v>1082847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2750,13 @@
         <v>3043067</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2635</v>
@@ -2759,13 +2765,13 @@
         <v>2843232</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5494</v>
@@ -2774,13 +2780,13 @@
         <v>5886299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,7 +2842,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331D34EC-D52B-4813-B270-2C5281E020C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781A6330-ABF8-4E55-8415-17DCD474BC43}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2985,13 @@
         <v>155515</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>296</v>
@@ -2994,13 +3000,13 @@
         <v>347666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>457</v>
@@ -3009,13 +3015,13 @@
         <v>503182</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3036,13 @@
         <v>598832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>596</v>
@@ -3045,13 +3051,13 @@
         <v>646994</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1197</v>
@@ -3060,13 +3066,13 @@
         <v>1245825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3140,13 @@
         <v>130736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>202</v>
@@ -3149,13 +3155,13 @@
         <v>228477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>324</v>
@@ -3164,13 +3170,13 @@
         <v>359213</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3191,13 @@
         <v>1945649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1706</v>
@@ -3200,13 +3206,13 @@
         <v>1759823</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3536</v>
@@ -3215,13 +3221,13 @@
         <v>3705472</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3295,13 @@
         <v>26702</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3304,13 +3310,13 @@
         <v>49033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3319,13 +3325,13 @@
         <v>75735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3346,13 @@
         <v>520184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>486</v>
@@ -3355,13 +3361,13 @@
         <v>500107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -3587,7 +3593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B710CC11-EA2B-4E08-BE26-D8E9AFFD926B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45178098-3294-446C-8B36-94A35756AC71}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4073,10 +4079,10 @@
         <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4097,13 @@
         <v>621571</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>899</v>
@@ -4106,13 +4112,13 @@
         <v>648616</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1525</v>
@@ -4121,13 +4127,13 @@
         <v>1270189</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4201,13 @@
         <v>435493</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>1190</v>
@@ -4210,13 +4216,13 @@
         <v>728305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>1677</v>
@@ -4261,13 +4267,13 @@
         <v>3069293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>7032</v>
@@ -4276,13 +4282,13 @@
         <v>6007366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,7 +4344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P9_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P9_2_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BCE6A10-3A45-43E6-9666-30DB22C6D4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5980DB3C-5914-4437-A7D5-8A814E7D0FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ABBDD425-9401-4682-A415-37104A39AF0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{469C07E0-8301-4C27-816F-B2B6C2BBD933}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>15,51%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>23,46%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>84,49%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>90,81%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>4,18%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>91,76%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,382 +311,376 @@
     <t>23,26%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>35,45%</t>
   </si>
   <si>
-    <t>32,89%</t>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>68,01%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>88,39%</t>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>8,35%</t>
+    <t>8,19%</t>
   </si>
   <si>
     <t>10,32%</t>
@@ -695,19 +689,19 @@
     <t>17,7%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>90,73%</t>
@@ -716,25 +710,25 @@
     <t>89,68%</t>
   </si>
   <si>
-    <t>91,65%</t>
+    <t>91,81%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>86,42%</t>
   </si>
   <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas físicos en 2023 (Tasa respuesta: 99,89%)</t>
@@ -1359,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BB905D-D272-41BD-A53C-6C1A83559ED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF5BA13-A087-43D4-82BA-8DA24EA7F818}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1680,7 @@
         <v>1565</v>
       </c>
       <c r="D8" s="7">
-        <v>1609078</v>
+        <v>1609079</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1737,7 +1731,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1996,7 +1990,7 @@
         <v>2943</v>
       </c>
       <c r="D14" s="7">
-        <v>3009106</v>
+        <v>3009105</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2047,7 +2041,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05346402-9DBD-4CA1-AD2C-0A68A60243B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D897A9B6-FAFA-4FE5-96F6-0B1362CC8F4B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2559,13 +2553,13 @@
         <v>34765</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -2574,13 +2568,13 @@
         <v>62748</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2589,13 @@
         <v>453198</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>379</v>
@@ -2610,13 +2604,13 @@
         <v>422897</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>795</v>
@@ -2625,13 +2619,13 @@
         <v>876096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2693,13 @@
         <v>375794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>656</v>
@@ -2714,13 +2708,13 @@
         <v>707052</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>998</v>
@@ -2729,13 +2723,13 @@
         <v>1082847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2744,13 @@
         <v>3043067</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2635</v>
@@ -2765,13 +2759,13 @@
         <v>2843232</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>5494</v>
@@ -2780,13 +2774,13 @@
         <v>5886299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781A6330-ABF8-4E55-8415-17DCD474BC43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A0F21A-0FA6-4DF1-9DDE-1DA2C43EA254}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2979,13 @@
         <v>155515</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>296</v>
@@ -3000,13 +2994,13 @@
         <v>347666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>457</v>
@@ -3015,13 +3009,13 @@
         <v>503182</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3030,13 @@
         <v>598832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>596</v>
@@ -3051,13 +3045,13 @@
         <v>646994</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1197</v>
@@ -3066,13 +3060,13 @@
         <v>1245825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3134,13 @@
         <v>130736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>202</v>
@@ -3155,13 +3149,13 @@
         <v>228477</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>324</v>
@@ -3170,13 +3164,13 @@
         <v>359213</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3185,13 @@
         <v>1945649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1706</v>
@@ -3206,13 +3200,13 @@
         <v>1759823</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3536</v>
@@ -3221,13 +3215,13 @@
         <v>3705472</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3289,13 @@
         <v>26702</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -3310,13 +3304,13 @@
         <v>49033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3325,13 +3319,13 @@
         <v>75735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3340,13 @@
         <v>520184</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>486</v>
@@ -3361,13 +3355,13 @@
         <v>500107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -3376,13 +3370,13 @@
         <v>1020291</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3444,13 @@
         <v>312953</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>538</v>
@@ -3465,13 +3459,13 @@
         <v>625176</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>844</v>
@@ -3480,13 +3474,13 @@
         <v>938130</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3495,13 @@
         <v>3064665</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2788</v>
@@ -3516,13 +3510,13 @@
         <v>2906924</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>5697</v>
@@ -3531,13 +3525,13 @@
         <v>5971588</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45178098-3294-446C-8B36-94A35756AC71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBF555E-897C-4E4C-B4EB-9ABE1183C49F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3730,13 @@
         <v>151094</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>614</v>
@@ -3751,13 +3745,13 @@
         <v>356867</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>809</v>
@@ -3766,13 +3760,13 @@
         <v>507961</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3781,13 @@
         <v>389715</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>813</v>
@@ -3802,13 +3796,13 @@
         <v>479086</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1308</v>
@@ -3817,13 +3811,13 @@
         <v>868800</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3885,13 @@
         <v>232931</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3906,13 +3900,13 @@
         <v>306168</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>708</v>
@@ -3921,13 +3915,13 @@
         <v>539099</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3936,13 @@
         <v>1926787</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2447</v>
@@ -3957,13 +3951,13 @@
         <v>1941590</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4199</v>
@@ -3972,13 +3966,13 @@
         <v>3868378</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4040,13 @@
         <v>51468</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -4061,13 +4055,13 @@
         <v>65270</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
@@ -4076,13 +4070,13 @@
         <v>116737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4091,13 @@
         <v>621571</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>899</v>
@@ -4112,13 +4106,13 @@
         <v>648616</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1525</v>
@@ -4127,10 +4121,10 @@
         <v>1270189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>47</v>
@@ -4201,13 +4195,13 @@
         <v>435493</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>1190</v>
@@ -4216,13 +4210,13 @@
         <v>728305</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>1677</v>
@@ -4231,13 +4225,13 @@
         <v>1163798</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4246,13 @@
         <v>2938073</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>4159</v>
@@ -4267,13 +4261,13 @@
         <v>3069293</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>7032</v>
@@ -4282,13 +4276,13 @@
         <v>6007366</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
